--- a/public/templates/template_comparaison_SAN.xlsx
+++ b/public/templates/template_comparaison_SAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\webadm\projets\helios\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6569A76A-F9F3-4B5D-B6F6-7CD9EAF44E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03963281-C05B-4F56-A1D3-AD47E5333E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparaison" sheetId="1" r:id="rId1"/>
@@ -56,52 +56,180 @@
     <t>Allocation de ressources</t>
   </si>
   <si>
-    <t>Source : PMSI
+    <t>date_mis_a_jour_pmsi</t>
+  </si>
+  <si>
+    <t>date_mis_a_jour_rpu</t>
+  </si>
+  <si>
+    <t>date_mis_a_jour_hapi</t>
+  </si>
+  <si>
+    <t>date_mis_a_jour_sae</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PMSI
 Permet d’observer l’évolution de l’activité de l’établissement et le développement des prises en charge ambulatoires.
-Fréquence : Mensuelle
-Mode de calcul :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mensuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Nombre de RSA (Résumé de Sortie Anonymisé) classés selon la nomenclature des activités de soins (ASO) utilisée dans le cadre de la délivrance des autorisations. Les séjours pour séances et en erreurs sont retirés.
 Hospitalisation complète (HC) : durée de séjour est égale ou supérieure à 1 journée (date de sortie différente de la date d’entrée).
 Hospitalisation de jour (HdJ)/ambulatoire (HP) : durée de séjour est inférieure à 1 journée (date de sortie identique à la date d’entrée).
-Source(s) :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Programme de médicalisation des systèmes d’information (PMSI) - Agence technique de l’information sur l’hospitalisation (ATIH)
 Médecine Chirurgie Obstétrique (MCO) - fichiers RSA (Résumé de Sortie Anonymisé)
 Dans le cadre du PMSI, tout séjour dans un établissement de santé, public ou privé, fait l’objet d’un recueil systématique et minimal d’informations administratives et médicales qui sont utilisées principalement pour le financement des établissements de santé (tarification à l’activité) et pour l’organisation de l’offre de soins (planification).
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>Source : RPU
-Un résumé de passages aux urgences (RPU) est un recueil standardisé de données médico-administratives pour chaque passage aux urgences. La transmission des RPU par les établissements de santé publics ou privés ayant une activité de médecine d’urgence a été rendue obligatoire par arrêté du 24 juillet 2013 dans un objectif de veille et de sécurité sanitaire mais également d’amélioration des connaissances de l’activité des services d’urgences.
-Fréquence : Annuelle
-Mode de calcul :
-Nombre de RPU transmis dans l’année par l’établissement à l’ATIH. Sont supprimés les RPU dont la durée de passage est négative, nulle ou supérieure à 72H.
-Source(s) :
-Urgences - fichiers RPU (Résumé de passage aux urgences) - Agence technique de l’information sur l’hospitalisation (ATIH)
-Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>date_mis_a_jour_pmsi</t>
-  </si>
-  <si>
-    <t>date_mis_a_jour_rpu</t>
-  </si>
-  <si>
-    <t>Source : HAPI
-L’application HAPI « Autres champs » outille le processus de gestion et d’attribution des ressources liées aux enveloppes MIGAC, DAF, USLD, Forfait et FMESPP d’une part, et, le pilotage et l’ordonnancement des dépenses du fonds d’intervention régional (FIR) d’autre part.
-Mode de calcul :
-Montant des crédits alloués par enveloppes, sous enveloppes et mode délégation, par campagne budgétaire.
-Fréquence : Quotidienne
-Source(s) : HAPI (HArmonisation et Partage d’Information) - Autres champs.
-Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>date_mis_a_jour_hapi</t>
-  </si>
-  <si>
-    <t>Source : PMSI
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PMSI
 Permet d’observer l’évolution de l’activité de l’établissement et le développement des prises en charge ambulatoires.
-Fréquence : Mensuelle
-Mode de calcul :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mensuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Nombre de journées Soins de Suite et de Réadaptation (SSR) : nombre de journées des RHA (Résumés Hebdomadaires de sortie Anonymes).
 SSR : Le type d’hospitalisation est déduit sur la base du type d’hospitalisation de l’unité médicale, disponible dans le RHA, qui prend les valeurs :
 Hospitalisation complète ou de semaine en soins de suite médicalisés =&gt; Hospitalisation complète ou de semaine (HC)
@@ -111,36 +239,331 @@
 PSY : Le type d’hospitalisation est déduit sur la base des formes d’activité :
 Prises en charge à temps complet : Code 01 Hospitalisation à temps plein,Code 02 Séjour thérapeutique,Code 03 Hospitalisation à domicile,Code 04 Placement,familial thérapeutique29,Code 05 Appartement thérapeutique,Code 06 Centre de postcure psychiatrique,Code 07 Centre de crise (incluant centre d’accueil permanent et centre d’accueil et de crise)
 Prises en charge à temps partiel :Code 20 Hospitalisation à temps partiel de jour,Code 21 Hospitalisation à temps partiel de nuit,Code 23 Prise en charge en atelier thérapeutique
-Source(s) :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Programme de médicalisation des systèmes d’information (PMSI) - Agence technique de l’information sur l’hospitalisation (ATIH)
 Soins de Suite et de Réadaptation (SSR) - fichiers RHA (Résumés Hebdomadaires de sortie Anonymes)
 Psychiatrie - fichiers RPSA (Résumé Par Séquence Anonymisé)
 Dans le cadre du PMSI, tout séjour dans un établissement de santé, public ou privé, fait l’objet d’un recueil systématique et minimal d’informations administratives et médicales qui sont utilisées principalement pour le financement des établissements de santé (tarification à l’activité) et pour l’organisation de l’offre de soins (planification).
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>Source : SAE
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">RPU
+Un résumé de passages aux urgences (RPU) est un recueil standardisé de données médico-administratives pour chaque passage aux urgences. La transmission des RPU par les établissements de santé publics ou privés ayant une activité de médecine d’urgence a été rendue obligatoire par arrêté du 24 juillet 2013 dans un objectif de veille et de sécurité sanitaire mais également d’amélioration des connaissances de l’activité des services d’urgences.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Fréquence : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Nombre de RPU transmis dans l’année par l’établissement à l’ATIH. Sont supprimés les RPU dont la durée de passage est négative, nulle ou supérieure à 72H.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Urgences - fichiers RPU (Résumé de passage aux urgences) - Agence technique de l’information sur l’hospitalisation (ATIH)
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SAE
 Permet d’observer l’évolution de l’activité de l’unité de soins longue durée (USLD).
 Les unités de soins de longue durée (USLD) sont des structures d’hébergement et de soins qui accueillent majoritairement des personnes âgées de plus de 60 ans.
 Généralement adossées à un établissement hospitalier, les USLD s’adressent à des personnes dont l’état nécessite une surveillance médicale constante.
-Fréquence : Annuelle
-Mode de calcul :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Annuelle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Nombre de journées réalisées pour l’année en hospitalisation complète. Si la personne effectue un séjour en MCO ou en SMR, ce séjour interrompt le comptage des journées en soins de longue durée (qui reprend après).
-Source(s) :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Statistique annuelle des établissements de santé (SAE) - Direction de la Recherche, des Études, de l’Évaluation et des Statistiques (DREES).
 La Statistique annuelle des établissements de santé (SAE) est une enquête administrative exhaustive obligatoire, réalisée chaque année par la DREES auprès de tous les établissements de santé de France, pour recueillir des informations sur leur activité, leurs capacités, leurs équipements, et leurs personnel médicaux et non-médicaux.
 Helios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
-  </si>
-  <si>
-    <t>date_mis_a_jour_sae</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HAPI
+L’application HAPI « Autres champs » outille le processus de gestion et d’attribution des ressources liées aux enveloppes MIGAC, DAF, USLD, Forfait et FMESPP d’une part, et, le pilotage et l’ordonnancement des dépenses du fonds d’intervention régional (FIR) d’autre part.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Montant des crédits alloués par enveloppes, sous enveloppes et mode délégation, par campagne budgétaire.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Quotidienne
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source(s) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HAPI (HArmonisation et Partage d’Information) - Autres champs.
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -525,7 +948,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -537,14 +960,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="187.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="187.59765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -555,80 +978,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="291" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="291" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="274.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="362.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/templates/template_comparaison_SAN.xlsx
+++ b/public/templates/template_comparaison_SAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\webadm\projets\helios\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03963281-C05B-4F56-A1D3-AD47E5333E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E9F5B4-D4AF-4876-BC2F-6192547800BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -996,7 +996,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="291" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="309" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>

--- a/public/templates/template_comparaison_SAN.xlsx
+++ b/public/templates/template_comparaison_SAN.xlsx
@@ -1,22 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\webadm\projets\helios\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E9F5B4-D4AF-4876-BC2F-6192547800BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{90E9F5B4-D4AF-4876-BC2F-6192547800BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63F2438B-6DBB-47AF-813B-03087F7444E5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Comparaison" sheetId="1" r:id="rId1"/>
-    <sheet name="Lisez-moi" sheetId="2" r:id="rId2"/>
+    <sheet name="Lisez-moi" sheetId="2" r:id="rId1"/>
+    <sheet name="Comparaison" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,55 +42,24 @@
     <t>Indicateurs</t>
   </si>
   <si>
+    <t>Mise à jour</t>
+  </si>
+  <si>
     <t>Détails de l'indicateur</t>
   </si>
   <si>
-    <t>Mise à jour</t>
-  </si>
-  <si>
     <t>Nb de séjours Médecine -Total Hospt</t>
   </si>
   <si>
-    <t>Nb de séjours Chirurgie -Total Hospt</t>
-  </si>
-  <si>
-    <t>Nb séjours Obstétrique -Total Hospt</t>
-  </si>
-  <si>
-    <t>Nb journées Psychiatrie - Total Hospt</t>
-  </si>
-  <si>
-    <t>Nb journées SSR- Total Hospt</t>
-  </si>
-  <si>
-    <t>Nb de passage aux urgences</t>
-  </si>
-  <si>
-    <t>Nb journées USLD</t>
-  </si>
-  <si>
-    <t>Allocation de ressources</t>
-  </si>
-  <si>
     <t>date_mis_a_jour_pmsi</t>
   </si>
   <si>
-    <t>date_mis_a_jour_rpu</t>
-  </si>
-  <si>
-    <t>date_mis_a_jour_hapi</t>
-  </si>
-  <si>
-    <t>date_mis_a_jour_sae</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Source : </t>
@@ -82,9 +67,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">PMSI
@@ -95,9 +79,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>Fréquence :</t>
@@ -105,9 +88,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Mensuelle
@@ -117,23 +99,21 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mode de calcul :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Nombre de RSA (Résumé de Sortie Anonymisé) classés selon la nomenclature des activités de soins (ASO) utilisée dans le cadre de la délivrance des autorisations. Les séjours pour séances et en erreurs sont retirés.
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre de RSA (Résumé de Sortie Anonymisé) classés selon la nomenclature des activités de soins (ASO) utilisée dans le cadre de la délivrance des autorisations. Les séjours pour séances et en erreurs sont retirés.
 Hospitalisation complète (HC) : durée de séjour est égale ou supérieure à 1 journée (date de sortie différente de la date d’entrée).
 Hospitalisation de jour (HdJ)/ambulatoire (HP) : durée de séjour est inférieure à 1 journée (date de sortie identique à la date d’entrée).
 </t>
@@ -142,36 +122,42 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Source(s) :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Programme de médicalisation des systèmes d’information (PMSI) - Agence technique de l’information sur l’hospitalisation (ATIH)
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source(s) :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Programme de médicalisation des systèmes d’information (PMSI) - Agence technique de l’information sur l’hospitalisation (ATIH)
 Médecine Chirurgie Obstétrique (MCO) - fichiers RSA (Résumé de Sortie Anonymisé)
 Dans le cadre du PMSI, tout séjour dans un établissement de santé, public ou privé, fait l’objet d’un recueil systématique et minimal d’informations administratives et médicales qui sont utilisées principalement pour le financement des établissements de santé (tarification à l’activité) et pour l’organisation de l’offre de soins (planification).
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t>Nb de séjours Chirurgie -Total Hospt</t>
+  </si>
+  <si>
+    <t>Nb séjours Obstétrique -Total Hospt</t>
+  </si>
+  <si>
+    <t>Nb journées Psychiatrie - Total Hospt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Source : </t>
@@ -179,9 +165,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">PMSI
@@ -192,9 +177,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>Fréquence :</t>
@@ -202,9 +186,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Mensuelle
@@ -214,23 +197,21 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mode de calcul :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Nombre de journées Soins de Suite et de Réadaptation (SSR) : nombre de journées des RHA (Résumés Hebdomadaires de sortie Anonymes).
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre de journées Soins de Suite et de Réadaptation (SSR) : nombre de journées des RHA (Résumés Hebdomadaires de sortie Anonymes).
 SSR : Le type d’hospitalisation est déduit sur la base du type d’hospitalisation de l’unité médicale, disponible dans le RHA, qui prend les valeurs :
 Hospitalisation complète ou de semaine en soins de suite médicalisés =&gt; Hospitalisation complète ou de semaine (HC)
 Hospitalisation de jour en soins de suite médicalisés =&gt; Hospitalisation de jour ou de nuit (HP)
@@ -245,23 +226,21 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Source(s) :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Programme de médicalisation des systèmes d’information (PMSI) - Agence technique de l’information sur l’hospitalisation (ATIH)
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source(s) :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Programme de médicalisation des systèmes d’information (PMSI) - Agence technique de l’information sur l’hospitalisation (ATIH)
 Soins de Suite et de Réadaptation (SSR) - fichiers RHA (Résumés Hebdomadaires de sortie Anonymes)
 Psychiatrie - fichiers RPSA (Résumé Par Séquence Anonymisé)
 Dans le cadre du PMSI, tout séjour dans un établissement de santé, public ou privé, fait l’objet d’un recueil systématique et minimal d’informations administratives et médicales qui sont utilisées principalement pour le financement des établissements de santé (tarification à l’activité) et pour l’organisation de l’offre de soins (planification).
@@ -269,13 +248,21 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t>Nb journées SSR- Total Hospt</t>
+  </si>
+  <si>
+    <t>Nb de passage aux urgences</t>
+  </si>
+  <si>
+    <t>date_mis_a_jour_rpu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Source : </t>
@@ -283,9 +270,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">RPU
@@ -296,9 +282,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Fréquence : </t>
@@ -306,9 +291,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Annuelle
@@ -318,57 +302,58 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mode de calcul :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Nombre de RPU transmis dans l’année par l’établissement à l’ATIH. Sont supprimés les RPU dont la durée de passage est négative, nulle ou supérieure à 72H.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Source(s) :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Urgences - fichiers RPU (Résumé de passage aux urgences) - Agence technique de l’information sur l’hospitalisation (ATIH)
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre de RPU transmis dans l’année par l’établissement à l’ATIH. Sont supprimés les RPU dont la durée de passage est négative, nulle ou supérieure à 72H.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source(s) :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Urgences - fichiers RPU (Résumé de passage aux urgences) - Agence technique de l’information sur l’hospitalisation (ATIH)
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t>Nb journées USLD</t>
+  </si>
+  <si>
+    <t>date_mis_a_jour_sae</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>Source :</t>
@@ -376,9 +361,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> SAE
@@ -391,9 +375,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>Fréquence :</t>
@@ -401,9 +384,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Annuelle
@@ -413,58 +395,58 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mode de calcul :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Nombre de journées réalisées pour l’année en hospitalisation complète. Si la personne effectue un séjour en MCO ou en SMR, ce séjour interrompt le comptage des journées en soins de longue durée (qui reprend après).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Source(s) :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Statistique annuelle des établissements de santé (SAE) - Direction de la Recherche, des Études, de l’Évaluation et des Statistiques (DREES).
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre de journées réalisées pour l’année en hospitalisation complète. Si la personne effectue un séjour en MCO ou en SMR, ce séjour interrompt le comptage des journées en soins de longue durée (qui reprend après).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source(s) : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Statistique annuelle des établissements de santé (SAE) - Direction de la Recherche, des Études, de l’Évaluation et des Statistiques (DREES).
 La Statistique annuelle des établissements de santé (SAE) est une enquête administrative exhaustive obligatoire, réalisée chaque année par la DREES auprès de tous les établissements de santé de France, pour recueillir des informations sur leur activité, leurs capacités, leurs équipements, et leurs personnel médicaux et non-médicaux.
 Helios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t>Allocation de ressources</t>
+  </si>
+  <si>
+    <t>date_mis_a_jour_hapi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Source : </t>
@@ -472,9 +454,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">HAPI
@@ -485,32 +466,29 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Mode de calcul :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Montant des crédits alloués par enveloppes, sous enveloppes et mode délégation, par campagne budgétaire.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Montant des crédits alloués par enveloppes, sous enveloppes et mode délégation, par campagne budgétaire.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>Fréquence :</t>
@@ -518,9 +496,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Quotidienne
@@ -530,9 +507,8 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Source(s) : </t>
@@ -540,9 +516,8 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>HAPI (HArmonisation et Partage d’Information) - Autres champs.
@@ -554,7 +529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -565,9 +540,14 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -591,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -604,6 +584,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -943,114 +929,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587C9ED0-279B-44AC-9485-AC6832055B1B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="187.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="187.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="48" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="31.15">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="309" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="309" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="409.5" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="136.5" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" ht="274.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="274.89999999999998" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="324">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="240" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="240" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1064,4 +1038,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/templates/template_comparaison_SAN.xlsx
+++ b/public/templates/template_comparaison_SAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29322"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\webadm\projets\helios\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{90E9F5B4-D4AF-4876-BC2F-6192547800BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63F2438B-6DBB-47AF-813B-03087F7444E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78467E00-9E0B-4CF2-B9EB-D89DF4DDBF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lisez-moi" sheetId="2" r:id="rId1"/>
@@ -459,6 +459,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">HAPI
+Pour la campagne et le type d’établissement sélectionnés, cette enveloppe fait partie des 3 premières enveloppes attribuées.
 L’application HAPI « Autres champs » outille le processus de gestion et d’attribution des ressources liées aux enveloppes MIGAC, DAF, USLD, Forfait et FMESPP d’une part, et, le pilotage et l’ordonnancement des dépenses du fonds d’intervention régional (FIR) d’autre part.
 </t>
     </r>
@@ -579,17 +580,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,10 +957,10 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -967,24 +968,24 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="309" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="409.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -992,8 +993,8 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="274.89999999999998" customHeight="1">
       <c r="A7" s="2" t="s">
@@ -1002,7 +1003,7 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1013,7 +1014,7 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1024,7 +1025,7 @@
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/public/templates/template_comparaison_SAN.xlsx
+++ b/public/templates/template_comparaison_SAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\webadm\projets\helios\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://catamaniacrm-my.sharepoint.com/personal/y_elhouakmi_catamania_com/Documents/Documents/DNum/Helios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78467E00-9E0B-4CF2-B9EB-D89DF4DDBF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{78467E00-9E0B-4CF2-B9EB-D89DF4DDBF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECA6A6EB-4F37-4DE5-9620-D8B803D62DA7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lisez-moi" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Indicateurs</t>
   </si>
@@ -525,12 +525,380 @@
 Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT « Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation. », outil décisionnel de pilotage centré sur la régulation de l’offre de soins, abordée sous les aspects des moyens humains, financiers, et productivité.</t>
     </r>
   </si>
+  <si>
+    <t>Nb ETP PM</t>
+  </si>
+  <si>
+    <t>date_mis_a_jour_ancre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fréquence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Quotidienne
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mode de calcul :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nombre d’équivalents temps pleins moyens rémunérés personnel médical
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source(s) :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Application Nationale Compte financier Rapport infra-annuel Eprd (ANCRE) - Agence technique de l’information sur l’hospitalisation (ATIH)
+Fichier de la campagne CF.
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT qui est un système décisionnel national permettant de stocker des informations provenant de plusieurs sources. DIAMANT : Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nb ETP PNM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Quotidienne
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre d’équivalents temps pleins moyens rémunérés personnel non médical
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Application Nationale Compte financier Rapport infra-annuel Eprd (ANCRE) - Agence technique de l’information sur l’hospitalisation (ATIH)
+Fichier de la campagne CF.
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT qui est un système décisionnel national permettant de stocker des informations provenant de plusieurs sources. DIAMANT : Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dépenses intérim PM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Quotidienne
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Montant du compte de charge "62113 Personnel intérimaire médical"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Application Nationale Compte financier Rapport infra-annuel Eprd (ANCRE) - Agence technique de l’information sur l’hospitalisation (ATIH)
+Fichier de la campagne CF.
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT qui est un système décisionnel national permettant de stocker des informations provenant de plusieurs sources. DIAMANT : Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jours d’absentéisme PM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Quotidienne
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre de jours d’absence du personnel médical
+La réalisation du bilan social est obligatoire pour les établissements (qu’ils soient sanitaires, sociaux ou médico-sociaux) dont l’effectif global au 31/12/n-1 est d’au moins 300 agents. Il est facultatif pour les autres établissements.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Enquête « Bilan Social »- Agence technique de l’information sur l’hospitalisation (ATIH)
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT qui est un système décisionnel national permettant de stocker des informations provenant de plusieurs sources. DIAMANT : Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Jours d’absentéisme PNM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fréquence :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Quotidienne
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mode de calcul : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nombre de jours d’absence du personnel non médical
+La réalisation du bilan social est obligatoire pour les établissements (qu’ils soient sanitaires, sociaux ou médico-sociaux) dont l’effectif global au 31/12/n-1 est d’au moins 300 agents. Il est facultatif pour les autres établissements.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source(s) :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Enquête « Bilan Social »- Agence technique de l’information sur l’hospitalisation (ATIH)
+Hélios collecte ces données depuis le SI mutualisé des ARS DIAMANT qui est un système décisionnel national permettant de stocker des informations provenant de plusieurs sources. DIAMANT : Décisionnel Inter-ARS pour la Maîtrise et l’Anticipation.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -549,6 +917,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -572,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -591,6 +967,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,18 +1310,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587C9ED0-279B-44AC-9485-AC6832055B1B}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="187.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -953,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="48" customHeight="1">
+    <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -964,21 +1343,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.15">
+    <row r="3" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" ht="309" customHeight="1">
+    <row r="4" spans="1:3" ht="309" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="409.5" customHeight="1">
+    <row r="5" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -989,14 +1368,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="136.5" customHeight="1">
+    <row r="6" spans="1:3" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" ht="274.89999999999998" customHeight="1">
+    <row r="7" spans="1:3" ht="274.89999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1007,7 +1386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="324">
+    <row r="8" spans="1:3" ht="315" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1018,14 +1397,69 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="240" customHeight="1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1047,7 +1481,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
